--- a/Excel/DefendBuffConfig.xlsx
+++ b/Excel/DefendBuffConfig.xlsx
@@ -165,7 +165,7 @@
     <t>多重雷电</t>
   </si>
   <si>
-    <t>雷电术施法目标+2</t>
+    <t>雷电术施法目标+4</t>
   </si>
   <si>
     <t>多重火符</t>
@@ -1167,7 +1167,7 @@
   <dimension ref="A2:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>34</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>36</v>

--- a/Excel/DefendBuffConfig.xlsx
+++ b/Excel/DefendBuffConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>#</t>
   </si>
@@ -1167,7 +1167,7 @@
   <dimension ref="A2:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1788,7 +1788,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="3:11">
+    <row r="25" customHeight="1" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C25" s="2">
         <v>2000</v>
       </c>
@@ -1817,7 +1820,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="3:11">
+    <row r="26" customHeight="1" spans="1:11">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C26" s="2">
         <v>2001</v>
       </c>

--- a/Excel/DefendBuffConfig.xlsx
+++ b/Excel/DefendBuffConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>#</t>
   </si>
@@ -367,12 +367,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1167,7 +1167,7 @@
   <dimension ref="A2:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1792,6 +1792,9 @@
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C25" s="2">
         <v>2000</v>
       </c>
@@ -1822,6 +1825,9 @@
     </row>
     <row r="26" customHeight="1" spans="1:11">
       <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2">

--- a/Excel/DefendBuffConfig.xlsx
+++ b/Excel/DefendBuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
     <t>生命(小)</t>
   </si>
   <si>
-    <t>提高{0}%生命御(乘法)</t>
+    <t>提高{0}%生命(乘法)</t>
   </si>
   <si>
     <t>生命(中)</t>
@@ -367,12 +367,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1167,7 +1167,7 @@
   <dimension ref="A2:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/DefendBuffConfig.xlsx
+++ b/Excel/DefendBuffConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>MaxCount</t>
   </si>
   <si>
     <t>AttrId</t>
@@ -1164,30 +1167,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:AA26"/>
+  <dimension ref="A2:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
     <col min="4" max="4" width="12.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="2" customWidth="1"/>
-    <col min="7" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="11" width="19" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="5" max="6" width="11.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
+    <col min="8" max="10" width="13" style="2" customWidth="1"/>
+    <col min="11" max="12" width="19" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.25" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" customHeight="1" spans="12:12">
-      <c r="L2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="3:12">
+    <row r="2" customHeight="1" spans="13:13">
+      <c r="M2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="3:13">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1215,11 +1218,14 @@
       <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" customHeight="1" spans="3:12">
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="3:13">
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
@@ -1245,98 +1251,109 @@
       <c r="K4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" customHeight="1" spans="3:12">
+      <c r="L4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" customHeight="1" spans="3:13">
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" customHeight="1" spans="3:11">
+        <v>13</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" customHeight="1" spans="3:12">
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
         <v>2001</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>10</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:27">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:28">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2001</v>
-      </c>
-      <c r="G7" s="2">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>100</v>
       </c>
-      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1352,396 +1369,436 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-    </row>
-    <row r="8" customHeight="1" spans="3:11">
+      <c r="AB7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="3:12">
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
         <v>2001</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>30</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="3:11">
+    <row r="9" customHeight="1" spans="3:12">
       <c r="C9" s="2">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
         <v>2002</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>10</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="3:11">
+    <row r="10" customHeight="1" spans="3:12">
       <c r="C10" s="2">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2002</v>
+      </c>
+      <c r="H10" s="2">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2002</v>
-      </c>
-      <c r="G10" s="2">
-        <v>20</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="3:11">
+    <row r="11" customHeight="1" spans="3:12">
       <c r="C11" s="2">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
         <v>2002</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>30</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:11">
+    <row r="12" customHeight="1" spans="3:12">
       <c r="C12" s="2">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
         <v>2003</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>10</v>
       </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="3:11">
+    <row r="13" customHeight="1" spans="3:12">
       <c r="C13" s="2">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2003</v>
+      </c>
+      <c r="H13" s="2">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2003</v>
-      </c>
-      <c r="G13" s="2">
-        <v>20</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:11">
+    <row r="14" customHeight="1" spans="3:12">
       <c r="C14" s="2">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
         <v>2003</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>30</v>
       </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:11">
+    <row r="15" customHeight="1" spans="3:12">
       <c r="C15" s="2">
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
         <v>12</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>10</v>
       </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="2">
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:11">
+    <row r="16" customHeight="1" spans="3:12">
       <c r="C16" s="2">
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>12</v>
+      </c>
+      <c r="H16" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>12</v>
-      </c>
-      <c r="G16" s="2">
-        <v>20</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="3:11">
+    <row r="17" customHeight="1" spans="3:12">
       <c r="C17" s="2">
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
         <v>12</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>30</v>
       </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="3:11">
+    <row r="18" customHeight="1" spans="3:12">
       <c r="C18" s="2">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2">
         <v>13</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>10</v>
       </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="2">
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="3:11">
+    <row r="19" customHeight="1" spans="3:12">
       <c r="C19" s="2">
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>13</v>
+      </c>
+      <c r="H19" s="2">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>13</v>
-      </c>
-      <c r="G19" s="2">
-        <v>20</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="2">
+      <c r="L19" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="3:11">
+    <row r="20" customHeight="1" spans="3:12">
       <c r="C20" s="2">
         <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
         <v>13</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>30</v>
       </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="2">
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="3:11">
+    <row r="22" customHeight="1" spans="3:12">
       <c r="C22" s="2">
         <v>1000</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -1750,27 +1807,30 @@
         <v>0</v>
       </c>
       <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
         <v>1001</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" s="2">
+      <c r="K22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="3:11">
+    <row r="23" customHeight="1" spans="3:12">
       <c r="C23" s="2">
         <v>1001</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
       </c>
       <c r="F23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -1779,16 +1839,19 @@
         <v>0</v>
       </c>
       <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
         <v>1002</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23" s="2">
+      <c r="K23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:11">
+    <row r="25" customHeight="1" spans="1:12">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1799,31 +1862,34 @@
         <v>2000</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2">
         <v>3</v>
       </c>
       <c r="F25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
         <v>21010</v>
       </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K25" s="2">
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:11">
+    <row r="26" customHeight="1" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -1834,33 +1900,36 @@
         <v>2001</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2">
         <v>3</v>
       </c>
       <c r="F26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
       <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
         <v>21009</v>
       </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" s="2">
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="2">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 F3 G3 J3 K3 L3 E4 F4 G4 J4 K4 L4 E5 F5:G5 H5 I5 J5 K5 L5 C3:C5 D3:D5 H3:H4 I3:I4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 F3 G3 H3 K3 L3 M3 E4 F4 G4 H4 K4 L4 M4 E5 F5 G5:H5 I5 J5 K5 L5 M5 C3:C5 D3:D5 I3:I4 J3:J4" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/DefendBuffConfig.xlsx
+++ b/Excel/DefendBuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -180,7 +180,7 @@
     <t>彻地钉</t>
   </si>
   <si>
-    <t>使用战士技能50%概率释放</t>
+    <t>战士攻击技能20%概率释放</t>
   </si>
   <si>
     <t>烈火剑法(追击)</t>
@@ -1170,7 +1170,7 @@
   <dimension ref="A2:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1851,13 +1851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:12">
-      <c r="A25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="25" customHeight="1" spans="3:12">
       <c r="C25" s="2">
         <v>2000</v>
       </c>
@@ -1877,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>21010</v>
+        <v>1010</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>

--- a/Excel/DefendBuffConfig.xlsx
+++ b/Excel/DefendBuffConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -370,12 +370,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1170,7 +1170,7 @@
   <dimension ref="A2:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1851,7 +1851,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="3:12">
+    <row r="25" customHeight="1" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C25" s="2">
         <v>2000</v>
       </c>

--- a/Excel/DefendBuffConfig.xlsx
+++ b/Excel/DefendBuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -177,7 +177,7 @@
     <t>火符术施法目标+1</t>
   </si>
   <si>
-    <t>彻地钉</t>
+    <t>分身术(20级)</t>
   </si>
   <si>
     <t>战士攻击技能20%概率释放</t>
@@ -370,12 +370,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1170,7 +1170,7 @@
   <dimension ref="A2:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1851,13 +1851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:12">
-      <c r="A25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="25" customHeight="1" spans="3:12">
       <c r="C25" s="2">
         <v>2000</v>
       </c>
@@ -1877,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>1010</v>
+        <v>3010</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>

--- a/Excel/DefendBuffConfig.xlsx
+++ b/Excel/DefendBuffConfig.xlsx
@@ -1170,7 +1170,7 @@
   <dimension ref="A2:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>3010</v>
+        <v>2010</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>

--- a/Excel/DefendBuffConfig.xlsx
+++ b/Excel/DefendBuffConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,7 @@
     <t>分身术(20级)</t>
   </si>
   <si>
-    <t>战士攻击技能20%概率释放</t>
+    <t>创造一个分身</t>
   </si>
   <si>
     <t>烈火剑法(追击)</t>
@@ -199,7 +199,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +223,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -711,143 +717,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1170,7 +1177,7 @@
   <dimension ref="A2:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1876,7 +1883,7 @@
       <c r="J25" s="2">
         <v>0</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="4" t="s">
         <v>39</v>
       </c>
       <c r="L25" s="2">

--- a/Excel/DefendBuffConfig.xlsx
+++ b/Excel/DefendBuffConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -1177,7 +1177,7 @@
   <dimension ref="A2:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1858,7 +1858,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="3:12">
+    <row r="25" customHeight="1" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C25" s="2">
         <v>2000</v>
       </c>

--- a/Excel/DefendBuffConfig.xlsx
+++ b/Excel/DefendBuffConfig.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -1794,7 +1794,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="3:12">
+    <row r="22" customHeight="1" spans="1:12">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C22" s="2">
         <v>1000</v>
       </c>
@@ -1826,7 +1832,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="3:12">
+    <row r="23" customHeight="1" spans="1:12">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C23" s="2">
         <v>1001</v>
       </c>
@@ -1936,7 +1948,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3 F3 G3 H3 K3 L3 M3 E4 F4 G4 H4 K4 L4 M4 E5 F5 G5:H5 I5 J5 K5 L5 M5 C3:C5 D3:D5 I3:I4 J3:J4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="E3:H3 K3:M3 G4:H4 L4:M4 G5:H5 L5:M5 K4:K5 C3:D5 I3:J5 E4:F5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
